--- a/cp-descriptionsummary/ig/ValueSet-eclaire-category-vs.xlsx
+++ b/cp-descriptionsummary/ig/ValueSet-eclaire-category-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T14:27:17+00:00</t>
+    <t>2025-07-21T14:42:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-descriptionsummary/ig/ValueSet-eclaire-category-vs.xlsx
+++ b/cp-descriptionsummary/ig/ValueSet-eclaire-category-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T14:42:49+00:00</t>
+    <t>2025-07-21T14:51:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-descriptionsummary/ig/ValueSet-eclaire-category-vs.xlsx
+++ b/cp-descriptionsummary/ig/ValueSet-eclaire-category-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T14:51:20+00:00</t>
+    <t>2025-07-23T12:40:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-descriptionsummary/ig/ValueSet-eclaire-category-vs.xlsx
+++ b/cp-descriptionsummary/ig/ValueSet-eclaire-category-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-23T12:40:47+00:00</t>
+    <t>2025-07-23T13:42:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-descriptionsummary/ig/ValueSet-eclaire-category-vs.xlsx
+++ b/cp-descriptionsummary/ig/ValueSet-eclaire-category-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-23T13:42:01+00:00</t>
+    <t>2025-07-23T15:03:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-descriptionsummary/ig/ValueSet-eclaire-category-vs.xlsx
+++ b/cp-descriptionsummary/ig/ValueSet-eclaire-category-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-23T15:03:37+00:00</t>
+    <t>2025-07-24T09:17:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-descriptionsummary/ig/ValueSet-eclaire-category-vs.xlsx
+++ b/cp-descriptionsummary/ig/ValueSet-eclaire-category-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T09:17:47+00:00</t>
+    <t>2025-07-24T15:58:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-descriptionsummary/ig/ValueSet-eclaire-category-vs.xlsx
+++ b/cp-descriptionsummary/ig/ValueSet-eclaire-category-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T15:58:49+00:00</t>
+    <t>2025-07-24T16:13:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-descriptionsummary/ig/ValueSet-eclaire-category-vs.xlsx
+++ b/cp-descriptionsummary/ig/ValueSet-eclaire-category-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T16:13:07+00:00</t>
+    <t>2025-07-24T16:28:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-descriptionsummary/ig/ValueSet-eclaire-category-vs.xlsx
+++ b/cp-descriptionsummary/ig/ValueSet-eclaire-category-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T16:28:48+00:00</t>
+    <t>2025-07-25T15:12:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
